--- a/results/fp.xlsx
+++ b/results/fp.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3291</v>
+        <v>3299</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -566,16 +566,16 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>jaz imam nov obraz</t>
+          <t>zmotla sem se</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>I have a new face</t>
+          <t>I made a mistake</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>43574.15902777778</v>
+        <v>43574.16111111111</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -711,21 +711,21 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>seveda</t>
+          <t>nadaljuj z branjem</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Of course</t>
+          <t xml:space="preserve">Continue reading </t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3324</v>
+        <v>3315</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -788,25 +788,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>a super ti pridem pomagat ok?</t>
+          <t>seveda</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Oh great I will come help you ok?</t>
+          <t>Of course</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>43574.15763888889</v>
+        <v>43574.14583333334</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -839,7 +839,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3333</v>
+        <v>3316</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -852,38 +852,38 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Odlična ideja!</t>
+          <t>seveda bom</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Excellent idea!</t>
+          <t>Of course, I will</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>43574.13263888889</v>
+        <v>43574.14652777778</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -905,18 +905,18 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3340</v>
+        <v>3319</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -929,38 +929,38 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>smartno10</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ne drgač pa dobra</t>
+          <t>mene niste sprejeli ali kaj?!</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>No otherwise it's good</t>
+          <t>You did not accept me?!</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>43574.1375</v>
+        <v>43574.15555555555</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -993,7 +993,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3359</v>
+        <v>3333</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1015,29 +1015,29 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>jaz imam nov obraz</t>
+          <t>Odlična ideja!</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>I have a new face</t>
+          <t>Excellent idea!</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>43574.15694444445</v>
+        <v>43574.13263888889</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1059,18 +1059,18 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3362</v>
+        <v>3339</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1092,29 +1092,29 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Odlična ideja.Imaš še kakšen predlog?</t>
+          <t>hahahah dobra</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Excellent idea. Do you have any other suggestions?</t>
+          <t xml:space="preserve">hahahah good one </t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>43574.13611111111</v>
+        <v>43574.13680555556</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1131,23 +1131,23 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3363</v>
+        <v>3340</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1169,29 +1169,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>ne drgač pa dobra</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>No otherwise it's good</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>43574.14166666667</v>
+        <v>43574.1375</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3394</v>
+        <v>3344</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1237,11 +1237,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1250,25 +1250,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Nadaljujte z branjem.</t>
+          <t>gdsjcgrgfuzegzugerzgtfzgihaeojfdaskjfioshfiudsuhfgfiuhdhfiuvhfdshbiudhigerhughtriudghfiugjsgdhsfdkjhfdghfghhkjghgkhadghfvklhghdfhgjhklghb,b!!!!!!!!!!!!!!!!!</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Continue reading.</t>
+          <t>gibberish</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>43574.13125</v>
+        <v>43574.14722222222</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1290,18 +1290,18 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3403</v>
+        <v>3347</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1314,38 +1314,38 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Ponovno preberi vprašanje in poskusi odgovoriti nanj.</t>
+          <t>Šmatno6       živjoooooo     kniga</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Read the question again and try to answer it. </t>
+          <t>Šmartno6 hellooooooo book</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>43574.11805555555</v>
+        <v>43574.14930555555</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1367,18 +1367,18 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3412</v>
+        <v>3350</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1391,38 +1391,38 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno5</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Jakob, kaj pomeni razdal? Nadaljuj z branjem, prosim.</t>
+          <t>pa kdo ste ljudje drugače pa dobre ideje</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jakob, what does "give away" mean? Continue reading, please</t>
+          <t>Who are you people, you do have good ideas</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43574.1625</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1444,18 +1444,18 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3419</v>
+        <v>3355</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,11 +1468,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1490,16 +1490,16 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>na pošiljaj mi sporočil ker sem profi</t>
+          <t>dobra ideja</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Don't send me messages, I am a pro</t>
+          <t>Good idea</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>43574.16388888889</v>
+        <v>43574.14652777778</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1532,7 +1532,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3430</v>
+        <v>3357</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1545,38 +1545,38 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>smartno11</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ugibajva ampak res je mal tko tko ker sem ze velikrat poskusila pa ni pravi odgovor no nadaljujva</t>
+          <t>ja živjo</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Let's try to guess but it's so weird because I've tried it many times and it's never the right answer</t>
+          <t>Yes hello</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>43574.12638888889</v>
+        <v>43574.15486111111</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1593,23 +1593,23 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3437</v>
+        <v>3362</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1622,11 +1622,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1644,16 +1644,16 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Nadaljuj z branjem.</t>
+          <t>Odlična ideja.Imaš še kakšen predlog?</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Continue reading. </t>
+          <t>Excellent idea. Do you have any other suggestions?</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>43574.13125</v>
+        <v>43574.13611111111</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>MQ</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1686,7 +1686,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3439</v>
+        <v>3363</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1699,11 +1699,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1721,16 +1721,16 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>bom</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>I will</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>43574.13263888889</v>
+        <v>43574.14166666667</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3445</v>
+        <v>3365</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1772,42 +1772,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>835</v>
+        <v>801</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Filip, malo bolj se potrudi.</t>
+          <t>Filip, nadaljuj z branjem.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Filip, try a little harder</t>
+          <t xml:space="preserve">Filip, continue reading. </t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>43581.15880787037</v>
+        <v>43574.14444444444</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3455</v>
+        <v>3367</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1849,42 +1849,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>835</v>
+        <v>779</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>O tem se boste pogovarjali kasneje. Si že odgovorila na vprašanje?</t>
+          <t xml:space="preserve">smartno14     pošli  mi   odgovor                                                                         </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>You will talk about this later. Have you answered the question yet?</t>
+          <t>smartno14 send me the answer</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>43581.16326388889</v>
+        <v>43574.14930555555</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1901,23 +1901,23 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3482</v>
+        <v>3391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1926,15 +1926,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1943,25 +1943,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>835</v>
+        <v>787</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno14</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Bodi pozorna na velike začetnice.</t>
+          <t>Koliko si stara                    odpiši!</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Mind the capital letters.</t>
+          <t>How old are you      answer me!!!</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>43581.13657407407</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1978,23 +1978,23 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3490</v>
+        <v>3394</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2003,42 +2003,42 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>smartnoB14</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ena punca</t>
+          <t>Nadaljujte z branjem.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>I am a girl</t>
+          <t>Continue reading.</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>43581.15503472222</v>
+        <v>43574.13125</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2055,23 +2055,23 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3497</v>
+        <v>3400</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2080,42 +2080,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>835</v>
+        <v>778</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno5</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Odlične ideje!</t>
+          <t>ja dobra mideja smartno21</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Excellent ideas!</t>
+          <t>Yes that's a good idea smartno21</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>43581.13016203704</v>
+        <v>43574.15972222222</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2137,18 +2137,18 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3505</v>
+        <v>3403</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2170,29 +2170,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>835</v>
+        <v>801</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>SmartnoB12, kaj pa ti misliš? Kakšen bi bil pa tvoj odgovor na vprašanje?</t>
+          <t>Ponovno preberi vprašanje in poskusi odgovoriti nanj.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>SmartnoB12, what do you think? What would your answer be?</t>
+          <t xml:space="preserve">Read the question again and try to answer it. </t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>43581.12453703704</v>
+        <v>43574.11805555555</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2225,7 +2225,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3512</v>
+        <v>3412</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2247,29 +2247,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>835</v>
+        <v>801</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>SmartnoB10, veselim se tvojega odgovora na vprašanje!</t>
+          <t>Jakob, kaj pomeni razdal? Nadaljuj z branjem, prosim.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>SmartnoB10, I am looking forward to your answer to the question!</t>
+          <t>Jakob, what does "give away" mean? Continue reading, please</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>43581.13363425926</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>MQ</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2302,7 +2302,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3517</v>
+        <v>3419</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2324,29 +2324,29 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>823</v>
+        <v>781</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>smartnoB19</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>malo čudno se ti zdi</t>
+          <t>na pošiljaj mi sporočil ker sem profi</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>I think that is a little strange</t>
+          <t>Don't send me messages, I am a pro</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>43592.45950231481</v>
+        <v>43574.16388888889</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3527</v>
+        <v>3421</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2405,25 +2405,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>835</v>
+        <v>781</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Šmartno 22, prosim odgovori na vprašanje? Kako bi pa ti pomagal otrokom?</t>
+          <t>ker sem pač profi</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Šmartno 22, please answer the question. How would you help the children?</t>
+          <t>Because I am a pro</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>43581.12952546297</v>
+        <v>43574.16458333333</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2440,23 +2440,23 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3529</v>
+        <v>3428</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2478,29 +2478,29 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>818</v>
+        <v>792</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>smartnoB14</t>
+          <t>smartno19</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>No mislim dala ker sem punca</t>
+          <t>da se strinjam s smartno11</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>I mean give (dala - the female form of the verb) because I am a girl</t>
+          <t>Yes I agree with you Smartno11</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>43581.13237268518</v>
+        <v>43574.125</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3534</v>
+        <v>3430</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2559,25 +2559,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>835</v>
+        <v>784</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno11</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Smartno B18, kaj pa ti meniš o odgovoru?</t>
+          <t>ugibajva ampak res je mal tko tko ker sem ze velikrat poskusila pa ni pravi odgovor no nadaljujva</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>SmartnoB18, what do you think of the answer?</t>
+          <t>Let's try to guess but it's so weird because I've tried it many times and it's never the right answer</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>43581.12569444445</v>
+        <v>43574.12638888889</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2594,23 +2594,23 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>S</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3537</v>
+        <v>3436</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2636,25 +2636,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>835</v>
+        <v>801</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>SmartnoB23, kaj pa ti meniš o odgovoru na vprašanje?</t>
+          <t>Šmartno 6, prosim nadaljuj z branjem zgodbe.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>SmartnoB23, what do you think of the answer to the question?</t>
+          <t>Šmartno 6, please continue reading the story</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>43581.13186342592</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2671,15 +2671,1016 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>3437</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Smartno</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>801</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>MetaHojsSmartno</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Nadaljuj z branjem.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Continue reading. </t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>43574.13125</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>3445</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Book Club Two</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>835</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Filip, malo bolj se potrudi.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Filip, try a little harder</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>43581.15880787037</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>3455</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>835</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>O tem se boste pogovarjali kasneje. Si že odgovorila na vprašanje?</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>You will talk about this later. Have you answered the question yet?</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>43581.16326388889</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>3482</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Book Club Two</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>835</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Bodi pozorna na velike začetnice.</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Mind the capital letters.</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>43581.13657407407</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>3505</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>835</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>SmartnoB12, kaj pa ti misliš? Kakšen bi bil pa tvoj odgovor na vprašanje?</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>SmartnoB12, what do you think? What would your answer be?</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>43581.12453703704</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>MQ</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>3510</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>835</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Odlična ideja, Smartno B19, prosim nadaljuj z branjem.</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Excellent idea, SmartnoB19, please continue reading</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>43581.13214120371</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>3512</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>835</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>SmartnoB10, veselim se tvojega odgovora na vprašanje!</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SmartnoB10, I am looking forward to your answer to the question!</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>43581.13363425926</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>823</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>smartnoB19</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>malo čudno se ti zdi</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>I think that is a little strange</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>43592.45950231481</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>9</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>3526</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Book Club Three</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>826</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>smartnoB22</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>pri kateri zgodbi si</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>At what story are you?</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>43581.12908564815</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>6</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>3527</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Book Club Three</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>835</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Šmartno 22, prosim odgovori na vprašanje? Kako bi pa ti pomagal otrokom?</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Šmartno 22, please answer the question. How would you help the children?</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>43581.12952546297</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>MQ</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>3529</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Book Club Three</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>818</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>smartnoB14</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>No mislim dala ker sem punca</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>I mean give (dala - the female form of the verb) because I am a girl</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>43581.13237268518</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>6</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>3534</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>835</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Smartno B18, kaj pa ti meniš o odgovoru?</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>SmartnoB18, what do you think of the answer?</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>43581.12569444445</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>MQ</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>3537</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>835</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>SmartnoB23, kaj pa ti meniš o odgovoru na vprašanje?</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SmartnoB23, what do you think of the answer to the question?</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>43581.13186342592</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>MQ</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>M</t>
         </is>

--- a/results/fp.xlsx
+++ b/results/fp.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3299</v>
+        <v>3308</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -544,38 +544,38 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila? / In what other way could Kekec get the medicine?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>zmotla sem se</t>
+          <t>zato ker je</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>I made a mistake</t>
+          <t xml:space="preserve">because she is </t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>43574.16111111111</v>
+        <v>43574.1625</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3308</v>
+        <v>3315</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -630,29 +630,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>smartno21</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>zato ker je</t>
+          <t>seveda</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">because she is </t>
+          <t>Of course</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>43574.1625</v>
+        <v>43574.14583333334</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3314</v>
+        <v>3333</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -698,38 +698,38 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>nadaljuj z branjem</t>
+          <t>Odlična ideja!</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Continue reading </t>
+          <t>Excellent idea!</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>43574.14583333334</v>
+        <v>43574.13263888889</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -751,18 +751,18 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3315</v>
+        <v>3340</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -775,38 +775,38 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno10</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>seveda</t>
+          <t>ne drgač pa dobra</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Of course</t>
+          <t>No otherwise it's good</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>43574.14583333334</v>
+        <v>43574.1375</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3316</v>
+        <v>3350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -852,38 +852,38 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>seveda bom</t>
+          <t>pa kdo ste ljudje drugače pa dobre ideje</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Of course, I will</t>
+          <t>Who are you people, you do have good ideas</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>43574.14652777778</v>
+        <v>43574.1625</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -900,23 +900,23 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3319</v>
+        <v>3355</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -929,47 +929,47 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Book Club Three</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>781</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>smartno8</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>dobra ideja</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Good idea</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>43574.14652777778</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Book Club Three</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>776</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>smartno3</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>mene niste sprejeli ali kaj?!</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>You did not accept me?!</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>43574.15555555555</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>16</v>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>No</t>
@@ -977,12 +977,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -993,7 +993,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3333</v>
+        <v>3362</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1028,16 +1028,16 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Odlična ideja!</t>
+          <t>Odlična ideja.Imaš še kakšen predlog?</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Excellent idea!</t>
+          <t>Excellent idea. Do you have any other suggestions?</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>43574.13263888889</v>
+        <v>43574.13611111111</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>MQ</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1070,7 +1070,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3339</v>
+        <v>3363</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1092,29 +1092,29 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>smartno10</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>hahahah dobra</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">hahahah good one </t>
+          <t>no</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>43574.13680555556</v>
+        <v>43574.14166666667</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3340</v>
+        <v>3394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1173,25 +1173,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>smartno10</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ne drgač pa dobra</t>
+          <t>Nadaljujte z branjem.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>No otherwise it's good</t>
+          <t>Continue reading.</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>43574.1375</v>
+        <v>43574.13125</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1213,18 +1213,18 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3344</v>
+        <v>3403</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1237,38 +1237,38 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>gdsjcgrgfuzegzugerzgtfzgihaeojfdaskjfioshfiudsuhfgfiuhdhfiuvhfdshbiudhigerhughtriudghfiugjsgdhsfdkjhfdghfghhkjghgkhadghfvklhghdfhgjhklghb,b!!!!!!!!!!!!!!!!!</t>
+          <t>Ponovno preberi vprašanje in poskusi odgovoriti nanj.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>gibberish</t>
+          <t xml:space="preserve">Read the question again and try to answer it. </t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>43574.14722222222</v>
+        <v>43574.11805555555</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1290,18 +1290,18 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3347</v>
+        <v>3412</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1314,38 +1314,38 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Šmatno6       živjoooooo     kniga</t>
+          <t>Jakob, kaj pomeni razdal? Nadaljuj z branjem, prosim.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Šmartno6 hellooooooo book</t>
+          <t>Jakob, what does "give away" mean? Continue reading, please</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>43574.14930555555</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1362,23 +1362,23 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>MQ</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3350</v>
+        <v>3419</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1391,38 +1391,38 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>smartno5</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>pa kdo ste ljudje drugače pa dobre ideje</t>
+          <t>na pošiljaj mi sporočil ker sem profi</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Who are you people, you do have good ideas</t>
+          <t>Don't send me messages, I am a pro</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>43574.1625</v>
+        <v>43574.16388888889</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1439,23 +1439,23 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3355</v>
+        <v>3430</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,38 +1468,38 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>dobra ideja</t>
+          <t>ugibajva ampak res je mal tko tko ker sem ze velikrat poskusila pa ni pravi odgovor no nadaljujva</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Good idea</t>
+          <t>Let's try to guess but it's so weird because I've tried it many times and it's never the right answer</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>43574.14652777778</v>
+        <v>43574.12638888889</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1516,23 +1516,23 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>CB</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3357</v>
+        <v>3436</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1545,38 +1545,38 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>776</v>
+        <v>801</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>smartno3</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ja živjo</t>
+          <t>Šmartno 6, prosim nadaljuj z branjem zgodbe.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Yes hello</t>
+          <t>Šmartno 6, please continue reading the story</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>43574.15486111111</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1598,18 +1598,18 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3362</v>
+        <v>3437</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1622,11 +1622,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1644,16 +1644,16 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Odlična ideja.Imaš še kakšen predlog?</t>
+          <t>Nadaljuj z branjem.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Excellent idea. Do you have any other suggestions?</t>
+          <t xml:space="preserve">Continue reading. </t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>43574.13611111111</v>
+        <v>43574.13125</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1686,7 +1686,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3363</v>
+        <v>3439</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1699,11 +1699,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1721,16 +1721,16 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>bom</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>I will</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>43574.14166666667</v>
+        <v>43574.13263888889</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3365</v>
+        <v>3445</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1772,42 +1772,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Filip, nadaljuj z branjem.</t>
+          <t>Filip, malo bolj se potrudi.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filip, continue reading. </t>
+          <t>Filip, try a little harder</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>43574.14444444444</v>
+        <v>43581.15880787037</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3367</v>
+        <v>3455</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1849,42 +1849,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>779</v>
+        <v>835</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">smartno14     pošli  mi   odgovor                                                                         </t>
+          <t>O tem se boste pogovarjali kasneje. Si že odgovorila na vprašanje?</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>smartno14 send me the answer</t>
+          <t>You will talk about this later. Have you answered the question yet?</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>43574.14930555555</v>
+        <v>43581.16326388889</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1901,23 +1901,23 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3391</v>
+        <v>3482</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1926,15 +1926,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1943,25 +1943,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>787</v>
+        <v>835</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>smartno14</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Koliko si stara                    odpiši!</t>
+          <t>Bodi pozorna na velike začetnice.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>How old are you      answer me!!!</t>
+          <t>Mind the capital letters.</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43581.13657407407</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1978,23 +1978,23 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3394</v>
+        <v>3497</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2003,42 +2003,42 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Nadaljujte z branjem.</t>
+          <t>Odlične ideje!</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Continue reading.</t>
+          <t>Excellent ideas!</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>43574.13125</v>
+        <v>43581.13016203704</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2071,7 +2071,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3400</v>
+        <v>3505</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2093,29 +2093,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>778</v>
+        <v>835</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>smartno5</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ja dobra mideja smartno21</t>
+          <t>SmartnoB12, kaj pa ti misliš? Kakšen bi bil pa tvoj odgovor na vprašanje?</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Yes that's a good idea smartno21</t>
+          <t>SmartnoB12, what do you think? What would your answer be?</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>43574.15972222222</v>
+        <v>43581.12453703704</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2132,23 +2132,23 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>MQ</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3403</v>
+        <v>3510</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2170,29 +2170,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Ponovno preberi vprašanje in poskusi odgovoriti nanj.</t>
+          <t>Odlična ideja, Smartno B19, prosim nadaljuj z branjem.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Read the question again and try to answer it. </t>
+          <t>Excellent idea, SmartnoB19, please continue reading</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>43574.11805555555</v>
+        <v>43581.13214120371</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2225,7 +2225,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3412</v>
+        <v>3512</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2247,29 +2247,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Jakob, kaj pomeni razdal? Nadaljuj z branjem, prosim.</t>
+          <t>SmartnoB10, veselim se tvojega odgovora na vprašanje!</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jakob, what does "give away" mean? Continue reading, please</t>
+          <t>SmartnoB10, I am looking forward to your answer to the question!</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43581.13363425926</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2302,7 +2302,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3419</v>
+        <v>3517</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2324,29 +2324,29 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>781</v>
+        <v>823</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartnoB19</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>na pošiljaj mi sporočil ker sem profi</t>
+          <t>malo čudno se ti zdi</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Don't send me messages, I am a pro</t>
+          <t>I think that is a little strange</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>43574.16388888889</v>
+        <v>43592.45950231481</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3421</v>
+        <v>3527</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2405,25 +2405,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>781</v>
+        <v>835</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ker sem pač profi</t>
+          <t>Šmartno 22, prosim odgovori na vprašanje? Kako bi pa ti pomagal otrokom?</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Because I am a pro</t>
+          <t>Šmartno 22, please answer the question. How would you help the children?</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>43574.16458333333</v>
+        <v>43581.12952546297</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2440,23 +2440,23 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>MQ</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3428</v>
+        <v>3529</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2478,29 +2478,29 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>smartno19</t>
+          <t>smartnoB14</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>da se strinjam s smartno11</t>
+          <t>No mislim dala ker sem punca</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Yes I agree with you Smartno11</t>
+          <t>I mean give (dala - the female form of the verb) because I am a girl</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>43574.125</v>
+        <v>43581.13237268518</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3430</v>
+        <v>3534</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2559,25 +2559,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>784</v>
+        <v>835</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>smartno11</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>ugibajva ampak res je mal tko tko ker sem ze velikrat poskusila pa ni pravi odgovor no nadaljujva</t>
+          <t>Smartno B18, kaj pa ti meniš o odgovoru?</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Let's try to guess but it's so weird because I've tried it many times and it's never the right answer</t>
+          <t>SmartnoB18, what do you think of the answer?</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>43574.12638888889</v>
+        <v>43581.12569444445</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2594,23 +2594,23 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>MQ</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3436</v>
+        <v>3537</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Smartno</t>
+          <t>smartnoB</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2636,25 +2636,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Šmartno 6, prosim nadaljuj z branjem zgodbe.</t>
+          <t>SmartnoB23, kaj pa ti meniš o odgovoru na vprašanje?</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Šmartno 6, please continue reading the story</t>
+          <t>SmartnoB23, what do you think of the answer to the question?</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43581.13186342592</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2671,1016 +2671,15 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>MQ</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>3437</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Smartno</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>8</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>801</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>MetaHojsSmartno</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Nadaljuj z branjem.</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Continue reading. </t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>43574.13125</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>3445</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>5</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Book Club Two</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>835</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>LaraHodejSmartnoB</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Filip, malo bolj se potrudi.</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Filip, try a little harder</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>43581.15880787037</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>3455</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>6</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Book Club One</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>835</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>LaraHodejSmartnoB</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>O tem se boste pogovarjali kasneje. Si že odgovorila na vprašanje?</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>You will talk about this later. Have you answered the question yet?</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>43581.16326388889</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>3482</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>7</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Book Club Two</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>835</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>LaraHodejSmartnoB</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Bodi pozorna na velike začetnice.</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Mind the capital letters.</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>43581.13657407407</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>3505</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>8</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Book Club One</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>835</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>LaraHodejSmartnoB</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>SmartnoB12, kaj pa ti misliš? Kakšen bi bil pa tvoj odgovor na vprašanje?</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>SmartnoB12, what do you think? What would your answer be?</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>43581.12453703704</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>MQ</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>3510</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>8</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Book Club One</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>835</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>LaraHodejSmartnoB</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Odlična ideja, Smartno B19, prosim nadaljuj z branjem.</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Excellent idea, SmartnoB19, please continue reading</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>43581.13214120371</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>ME</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>3512</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>8</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Book Club One</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>835</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>LaraHodejSmartnoB</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>SmartnoB10, veselim se tvojega odgovora na vprašanje!</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>SmartnoB10, I am looking forward to your answer to the question!</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>43581.13363425926</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>ME</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>3517</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>8</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Book Club One</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>823</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>smartnoB19</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>malo čudno se ti zdi</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>I think that is a little strange</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>43592.45950231481</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>9</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>3526</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>8</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Book Club Three</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>826</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>smartnoB22</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>pri kateri zgodbi si</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>At what story are you?</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>43581.12908564815</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>6</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>3527</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>8</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Book Club Three</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>835</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>LaraHodejSmartnoB</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Šmartno 22, prosim odgovori na vprašanje? Kako bi pa ti pomagal otrokom?</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Šmartno 22, please answer the question. How would you help the children?</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>43581.12952546297</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>MQ</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>3529</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>8</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Book Club Three</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>818</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>smartnoB14</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>No mislim dala ker sem punca</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>I mean give (dala - the female form of the verb) because I am a girl</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>43581.13237268518</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>6</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>3534</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>8</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>835</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>LaraHodejSmartnoB</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Smartno B18, kaj pa ti meniš o odgovoru?</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>SmartnoB18, what do you think of the answer?</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>43581.12569444445</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>MQ</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>3537</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>OŠ Šmartno pod Šmarno goro</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>smartnoB</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>8</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Book Club Four</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>835</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>LaraHodejSmartnoB</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>SmartnoB23, kaj pa ti meniš o odgovoru na vprašanje?</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>SmartnoB23, what do you think of the answer to the question?</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>43581.13186342592</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>MQ</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
         <is>
           <t>M</t>
         </is>

--- a/results/fp.xlsx
+++ b/results/fp.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3308</v>
+        <v>3291</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -544,38 +544,38 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila? / In what other way could Kekec get the medicine?</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>smartno21</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>zato ker je</t>
+          <t>jaz imam nov obraz</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">because she is </t>
+          <t>I have a new face</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>43574.1625</v>
+        <v>43574.15902777778</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3315</v>
+        <v>3299</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila? / In what other way could Kekec get the medicine?</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -634,25 +634,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>smartno24</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>seveda</t>
+          <t>zmotla sem se</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Of course</t>
+          <t>I made a mistake</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>43574.14583333334</v>
+        <v>43574.16111111111</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3333</v>
+        <v>3308</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -698,38 +698,38 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno21</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Odlična ideja!</t>
+          <t>zato ker je</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Excellent idea!</t>
+          <t xml:space="preserve">because she is </t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>43574.13263888889</v>
+        <v>43574.1625</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -751,18 +751,18 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3340</v>
+        <v>3316</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -775,38 +775,38 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>smartno10</t>
+          <t>smartno24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ne drgač pa dobra</t>
+          <t>seveda bom</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>No otherwise it's good</t>
+          <t>Of course, I will</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>43574.1375</v>
+        <v>43574.14652777778</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3350</v>
+        <v>3319</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -852,38 +852,38 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>smartno5</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>pa kdo ste ljudje drugače pa dobre ideje</t>
+          <t>mene niste sprejeli ali kaj?!</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Who are you people, you do have good ideas</t>
+          <t>You did not accept me?!</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>43574.1625</v>
+        <v>43574.15555555555</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -905,18 +905,18 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3355</v>
+        <v>3321</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -929,11 +929,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -942,25 +942,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>smartno3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>dobra ideja</t>
+          <t>HELLO KARO P.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Good idea</t>
+          <t xml:space="preserve">HELLO KARO P. </t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>43574.14652777778</v>
+        <v>43574.15625</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -993,7 +993,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3362</v>
+        <v>3333</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1028,16 +1028,16 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Odlična ideja.Imaš še kakšen predlog?</t>
+          <t>Odlična ideja!</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Excellent idea. Do you have any other suggestions?</t>
+          <t>Excellent idea!</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>43574.13611111111</v>
+        <v>43574.13263888889</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1070,7 +1070,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3363</v>
+        <v>3340</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1092,29 +1092,29 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>smartno10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>ne drgač pa dobra</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>No otherwise it's good</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>43574.14166666667</v>
+        <v>43574.1375</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3394</v>
+        <v>3350</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1173,25 +1173,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno5</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Nadaljujte z branjem.</t>
+          <t>pa kdo ste ljudje drugače pa dobre ideje</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Continue reading.</t>
+          <t>Who are you people, you do have good ideas</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>43574.13125</v>
+        <v>43574.1625</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1208,23 +1208,23 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3403</v>
+        <v>3355</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1237,11 +1237,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1250,25 +1250,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Ponovno preberi vprašanje in poskusi odgovoriti nanj.</t>
+          <t>dobra ideja</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Read the question again and try to answer it. </t>
+          <t>Good idea</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>43574.11805555555</v>
+        <v>43574.14652777778</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1290,18 +1290,18 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3412</v>
+        <v>3359</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1314,11 +1314,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1327,25 +1327,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>MetaHojsSmartno</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Jakob, kaj pomeni razdal? Nadaljuj z branjem, prosim.</t>
+          <t>jaz imam nov obraz</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jakob, what does "give away" mean? Continue reading, please</t>
+          <t>I have a new face</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43574.15694444445</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1362,23 +1362,23 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3419</v>
+        <v>3362</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1391,38 +1391,38 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>smartno8</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>na pošiljaj mi sporočil ker sem profi</t>
+          <t>Odlična ideja.Imaš še kakšen predlog?</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Don't send me messages, I am a pro</t>
+          <t>Excellent idea. Do you have any other suggestions?</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>43574.16388888889</v>
+        <v>43574.13611111111</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1439,23 +1439,23 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>MQ</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3430</v>
+        <v>3363</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,11 +1468,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1481,25 +1481,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>smartno11</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ugibajva ampak res je mal tko tko ker sem ze velikrat poskusila pa ni pravi odgovor no nadaljujva</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Let's try to guess but it's so weird because I've tried it many times and it's never the right answer</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>43574.12638888889</v>
+        <v>43574.14166666667</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1516,23 +1516,23 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3436</v>
+        <v>3394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1567,16 +1567,16 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Šmartno 6, prosim nadaljuj z branjem zgodbe.</t>
+          <t>Nadaljujte z branjem.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Šmartno 6, please continue reading the story</t>
+          <t>Continue reading.</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>43574.13055555556</v>
+        <v>43574.13125</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3437</v>
+        <v>3403</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1644,16 +1644,16 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Nadaljuj z branjem.</t>
+          <t>Ponovno preberi vprašanje in poskusi odgovoriti nanj.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Continue reading. </t>
+          <t xml:space="preserve">Read the question again and try to answer it. </t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>43574.13125</v>
+        <v>43574.11805555555</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3439</v>
+        <v>3412</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1708,29 +1708,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>smartno6</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>bom</t>
+          <t>Jakob, kaj pomeni razdal? Nadaljuj z branjem, prosim.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>I will</t>
+          <t>Jakob, what does "give away" mean? Continue reading, please</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>43574.13263888889</v>
+        <v>43574.13055555556</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1747,23 +1747,23 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>MQ</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3445</v>
+        <v>3419</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1772,42 +1772,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>835</v>
+        <v>781</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Filip, malo bolj se potrudi.</t>
+          <t>na pošiljaj mi sporočil ker sem profi</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Filip, try a little harder</t>
+          <t>Don't send me messages, I am a pro</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>43581.15880787037</v>
+        <v>43574.16388888889</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1829,18 +1829,18 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3455</v>
+        <v>3421</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1849,42 +1849,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>835</v>
+        <v>781</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>O tem se boste pogovarjali kasneje. Si že odgovorila na vprašanje?</t>
+          <t>ker sem pač profi</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>You will talk about this later. Have you answered the question yet?</t>
+          <t>Because I am a pro</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>43581.16326388889</v>
+        <v>43574.16458333333</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1901,23 +1901,23 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3482</v>
+        <v>3422</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1926,42 +1926,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Book Club Two</t>
+          <t>Book Club Three</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>835</v>
+        <v>781</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno8</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Bodi pozorna na velike začetnice.</t>
+          <t>izključ računalnik</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Mind the capital letters.</t>
+          <t>Turn off your computer</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>43581.13657407407</v>
+        <v>43574.16458333333</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1978,23 +1978,23 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3497</v>
+        <v>3428</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2003,15 +2003,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2020,25 +2020,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>835</v>
+        <v>792</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno19</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Odlične ideje!</t>
+          <t>da se strinjam s smartno11</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Excellent ideas!</t>
+          <t>Yes I agree with you Smartno11</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>43581.13016203704</v>
+        <v>43574.125</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2060,18 +2060,18 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3505</v>
+        <v>3430</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2093,29 +2093,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>835</v>
+        <v>784</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno11</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>SmartnoB12, kaj pa ti misliš? Kakšen bi bil pa tvoj odgovor na vprašanje?</t>
+          <t>ugibajva ampak res je mal tko tko ker sem ze velikrat poskusila pa ni pravi odgovor no nadaljujva</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>SmartnoB12, what do you think? What would your answer be?</t>
+          <t>Let's try to guess but it's so weird because I've tried it many times and it's never the right answer</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>43581.12453703704</v>
+        <v>43574.12638888889</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2132,23 +2132,23 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>S</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3510</v>
+        <v>3431</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2170,29 +2170,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>835</v>
+        <v>786</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno13</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Odlična ideja, Smartno B19, prosim nadaljuj z branjem.</t>
+          <t>jaz se tudi strinjam z smartno 11</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Excellent idea, SmartnoB19, please continue reading</t>
+          <t>I also agree with Smartno11</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>43581.13214120371</v>
+        <v>43574.12638888889</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2214,18 +2214,18 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3512</v>
+        <v>3434</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2247,29 +2247,29 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>835</v>
+        <v>779</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartno6</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>SmartnoB10, veselim se tvojega odgovora na vprašanje!</t>
+          <t>ha ,ha,ha,ha!!!</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>SmartnoB10, I am looking forward to your answer to the question!</t>
+          <t>ha ,ha,ha,ha!!!</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>43581.13363425926</v>
+        <v>43574.12916666667</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2291,18 +2291,18 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3517</v>
+        <v>3437</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>smartnoB</t>
+          <t>Smartno</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2324,29 +2324,29 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Book Club One</t>
+          <t>Book Club Four</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>smartnoB19</t>
+          <t>MetaHojsSmartno</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>malo čudno se ti zdi</t>
+          <t>Nadaljuj z branjem.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>I think that is a little strange</t>
+          <t xml:space="preserve">Continue reading. </t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>43592.45950231481</v>
+        <v>43574.13125</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2368,18 +2368,18 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3527</v>
+        <v>3445</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2392,16 +2392,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi Kekec na drugačen način prišel do zdravila?</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2414,16 +2414,16 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Šmartno 22, prosim odgovori na vprašanje? Kako bi pa ti pomagal otrokom?</t>
+          <t>Filip, malo bolj se potrudi.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Šmartno 22, please answer the question. How would you help the children?</t>
+          <t>Filip, try a little harder</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>43581.12952546297</v>
+        <v>43581.15880787037</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2440,12 +2440,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2456,7 +2456,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3529</v>
+        <v>3455</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2469,38 +2469,38 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Zakaj je Replja rekla Puhanki, da ni ravno ena najpametnejših? / Why did Replja say that Puhanka is "Not one of the smartest ones"?</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Book Club Three</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>smartnoB14</t>
+          <t>LaraHodejSmartnoB</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>No mislim dala ker sem punca</t>
+          <t>O tem se boste pogovarjali kasneje. Si že odgovorila na vprašanje?</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>I mean give (dala - the female form of the verb) because I am a girl</t>
+          <t>You will talk about this later. Have you answered the question yet?</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>43581.13237268518</v>
+        <v>43581.16326388889</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2517,23 +2517,23 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3534</v>
+        <v>3478</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2546,38 +2546,38 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club One</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>LaraHodejSmartnoB</t>
+          <t>smartnoB19</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Smartno B18, kaj pa ti meniš o odgovoru?</t>
+          <t>AMPAK POTEM SI UMAZAN</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>SmartnoB18, what do you think of the answer?</t>
+          <t>BUT THEN YOU'D BE DIRTY</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>43581.12569444445</v>
+        <v>43581.1424537037</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2594,23 +2594,23 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>MQ</t>
+          <t>DAA</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3537</v>
+        <v>3482</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2623,16 +2623,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+          <t>Kako bi lahko Cefizelj pobegnil policistu še na drugačen način? / In what other way could Cefizelj get away from the policeman?</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Book Club Four</t>
+          <t>Book Club Two</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -2645,16 +2645,16 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>SmartnoB23, kaj pa ti meniš o odgovoru na vprašanje?</t>
+          <t>Bodi pozorna na velike začetnice.</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>SmartnoB23, what do you think of the answer to the question?</t>
+          <t>Mind the capital letters.</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>43581.13186342592</v>
+        <v>43581.13657407407</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2671,15 +2671,708 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>3505</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>835</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>SmartnoB12, kaj pa ti misliš? Kakšen bi bil pa tvoj odgovor na vprašanje?</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>SmartnoB12, what do you think? What would your answer be?</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>43581.12453703704</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>MQ</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>3510</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>835</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Odlična ideja, Smartno B19, prosim nadaljuj z branjem.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Excellent idea, SmartnoB19, please continue reading</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>43581.13214120371</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>3512</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>835</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>SmartnoB10, veselim se tvojega odgovora na vprašanje!</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>SmartnoB10, I am looking forward to your answer to the question!</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>43581.13363425926</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>3517</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Book Club One</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>823</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>smartnoB19</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>malo čudno se ti zdi</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>I think that is a little strange</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>43592.45950231481</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>9</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>3526</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Book Club Three</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>826</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>smartnoB22</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>pri kateri zgodbi si</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>At what story are you?</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>43581.12908564815</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>6</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>3527</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Book Club Three</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>835</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Šmartno 22, prosim odgovori na vprašanje? Kako bi pa ti pomagal otrokom?</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Šmartno 22, please answer the question. How would you help the children?</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>43581.12952546297</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>MQ</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>3529</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Book Club Three</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>818</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>smartnoB14</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>No mislim dala ker sem punca</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>I mean give (dala - the female form of the verb) because I am a girl</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>43581.13237268518</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>3534</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>835</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Smartno B18, kaj pa ti meniš o odgovoru?</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SmartnoB18, what do you think of the answer?</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>43581.12569444445</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>MQ</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>3537</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>OŠ Šmartno pod Šmarno goro</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>smartnoB</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Kaj pa bi lahko v tvojem kraju naredili, da bi bilo manj takšnih otrok, ki nimajo kaj obleči? / What could your community do to make sure there were less kids with nothing to wear?</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Book Club Four</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>835</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>LaraHodejSmartnoB</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>SmartnoB23, kaj pa ti meniš o odgovoru na vprašanje?</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>SmartnoB23, what do you think of the answer to the question?</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>43581.13186342592</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>MQ</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>M</t>
         </is>
